--- a/Images/compulsory_cost.xlsx
+++ b/Images/compulsory_cost.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Dropbox\MSc_Urban_Spatial_Science\CASA0023\Group Project\desert-roses\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEB5FEC-F89B-4D4A-A464-7F47A7C682C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05925EA-2EC2-4151-8B29-B38D84345D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AED84E3-209E-EC46-BC6D-E732D4B09DD5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Manpower Cost" sheetId="1" r:id="rId1"/>
+    <sheet name="Compulsory Cost" sheetId="1" r:id="rId1"/>
     <sheet name="Optional Costs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -582,7 +582,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:D10"/>
+      <selection sqref="A1:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -623,7 +623,7 @@
         <v>120</v>
       </c>
       <c r="E2" s="7">
-        <f>B2*C2*D2</f>
+        <f t="shared" ref="E2:E9" si="0">B2*C2*D2</f>
         <v>36000</v>
       </c>
     </row>
@@ -641,7 +641,7 @@
         <v>90</v>
       </c>
       <c r="E3" s="7">
-        <f>B3*C3*D3</f>
+        <f t="shared" si="0"/>
         <v>22500</v>
       </c>
     </row>
@@ -659,7 +659,7 @@
         <v>90</v>
       </c>
       <c r="E4" s="7">
-        <f>B4*C4*D4</f>
+        <f t="shared" si="0"/>
         <v>40500</v>
       </c>
     </row>
@@ -677,7 +677,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="7">
-        <f>B5*C5*D5</f>
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
     </row>
@@ -695,7 +695,7 @@
         <v>90</v>
       </c>
       <c r="E6" s="7">
-        <f>B6*C6*D6</f>
+        <f t="shared" si="0"/>
         <v>45000</v>
       </c>
     </row>
@@ -713,7 +713,7 @@
         <v>60</v>
       </c>
       <c r="E7" s="7">
-        <f>B7*C7*D7</f>
+        <f t="shared" si="0"/>
         <v>12000</v>
       </c>
     </row>
@@ -731,7 +731,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="7">
-        <f>B8*C8*D8</f>
+        <f t="shared" si="0"/>
         <v>9000</v>
       </c>
     </row>
@@ -749,7 +749,7 @@
         <v>120</v>
       </c>
       <c r="E9" s="7">
-        <f>B9*C9*D9</f>
+        <f t="shared" si="0"/>
         <v>24000</v>
       </c>
       <c r="F9" s="8"/>
@@ -837,7 +837,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/Images/compulsory_cost.xlsx
+++ b/Images/compulsory_cost.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Dropbox\MSc_Urban_Spatial_Science\CASA0023\Group Project\desert-roses\Images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaun\Documents\CASA\Portfolio\desert-roses\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05925EA-2EC2-4151-8B29-B38D84345D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4919B97D-C0CC-40B8-A413-97F3847B0180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AED84E3-209E-EC46-BC6D-E732D4B09DD5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{8AED84E3-209E-EC46-BC6D-E732D4B09DD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Compulsory Cost" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -58,15 +69,9 @@
     <t>Total Manpower Cost</t>
   </si>
   <si>
-    <t>Botanist</t>
-  </si>
-  <si>
     <t>Cost</t>
   </si>
   <si>
-    <t>Maintenance and Updates to Dashboard</t>
-  </si>
-  <si>
     <t>Prediction and Modelling</t>
   </si>
   <si>
@@ -95,15 +100,28 @@
   </si>
   <si>
     <t>Government and Public Affairs</t>
+  </si>
+  <si>
+    <t>Botany Consultation</t>
+  </si>
+  <si>
+    <t>Continuous Maintenance and Update</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -136,16 +154,55 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -216,57 +273,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="20% - Accent2" xfId="2" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="3" builtinId="35"/>
+    <cellStyle name="Accent2" xfId="1" builtinId="33"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -283,9 +382,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -323,7 +422,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -429,7 +528,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -571,7 +670,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -582,242 +681,242 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:E13"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.296875" customWidth="1"/>
-    <col min="2" max="2" width="12.296875" customWidth="1"/>
-    <col min="3" max="5" width="15.69921875" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="7">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="12">
         <v>1</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="12">
         <v>300</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="12">
         <v>120</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="12">
         <f t="shared" ref="E2:E9" si="0">B2*C2*D2</f>
         <v>36000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="12">
         <v>1</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="12">
         <v>250</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="12">
         <v>90</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="12">
         <f t="shared" si="0"/>
         <v>22500</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="12">
         <v>2</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="12">
         <v>225</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="12">
         <v>90</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="12">
         <f t="shared" si="0"/>
         <v>40500</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="12">
         <v>1</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="12">
         <v>200</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="12">
         <v>20</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="12">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="7">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="12">
         <v>2</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="12">
         <v>250</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="12">
         <v>90</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="12">
         <f t="shared" si="0"/>
         <v>45000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="12">
         <v>1</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="12">
         <v>200</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="12">
         <v>60</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="12">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="12">
         <v>2</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="12">
         <v>150</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="12">
         <v>30</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="12">
         <f t="shared" si="0"/>
         <v>9000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="7">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="12">
         <v>1</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="12">
         <v>200</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="12">
         <v>120</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="12">
         <f t="shared" si="0"/>
         <v>24000</v>
       </c>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="7">
+      <c r="E10" s="14">
         <f>SUM(E2:E9)</f>
         <v>193000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="7">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="12">
         <f>10000</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="7">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="12">
         <f>(E10+E11)*0.1</f>
         <v>20300</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="10">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="14">
         <f>SUM(E10:E12)</f>
         <v>223300</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
     </row>
   </sheetData>
@@ -837,47 +936,48 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="17"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>